--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,15 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -64,187 +67,187 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>tea</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>really</t>
   </si>
   <si>
     <t>makes</t>
@@ -253,52 +256,46 @@
     <t>make</t>
   </si>
   <si>
-    <t>last</t>
+    <t>also</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9655172413793104</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4108527131782946</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3434343434343434</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8405572755417957</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7792207792207793</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1945945945945946</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,21 +1017,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1675675675675676</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>154</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,47 +1067,47 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="L10">
+        <v>51</v>
+      </c>
+      <c r="M10">
+        <v>51</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="K10">
-        <v>0.711864406779661</v>
-      </c>
-      <c r="L10">
-        <v>210</v>
-      </c>
-      <c r="M10">
-        <v>210</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6914285714285714</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.658908507223114</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L13">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>425</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.658908507223114</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1202,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1228,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6086956521739131</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1254,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6068376068376068</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L18">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1280,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.5909090909090909</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1306,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1332,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5808383233532934</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M21">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1358,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.5614035087719298</v>
@@ -1389,16 +1410,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1410,15 +1431,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5492957746478874</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
         <v>39</v>
@@ -1436,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5413533834586466</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L25">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1462,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5230769230769231</v>
+        <v>0.515625</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1493,16 +1514,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1514,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4603174603174603</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1540,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4578313253012048</v>
+        <v>0.424124513618677</v>
       </c>
       <c r="L29">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="M29">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1566,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4264705882352941</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L30">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1592,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>234</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.42</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1618,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4117647058823529</v>
+        <v>0.41</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1644,12 +1665,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>0.4098360655737705</v>
@@ -1675,16 +1696,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3947368421052632</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1696,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3928571428571428</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1722,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3852140077821012</v>
+        <v>0.389041095890411</v>
       </c>
       <c r="L36">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="M36">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1748,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>158</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3779904306220095</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L37">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1774,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3703703703703703</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L38">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1797,24 +1818,24 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>459</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3552631578947368</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1826,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3377483443708609</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1852,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3283100107642626</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1878,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>624</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3233082706766917</v>
+        <v>0.3304628632938644</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1904,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>90</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3209876543209876</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1930,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3093525179856115</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1956,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.3006622516556292</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L45">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1982,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>528</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2972972972972973</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2008,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2871287128712871</v>
+        <v>0.2754966887417218</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2034,47 +2055,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2777777777777778</v>
+        <v>0.258974358974359</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>78</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2727272727272727</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L49">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2086,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>232</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2672634271099744</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L50">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2112,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>573</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2666666666666667</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2138,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2483221476510067</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2164,47 +2185,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>112</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2342342342342342</v>
+        <v>0.2092391304347826</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>85</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.22</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2216,73 +2237,73 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2073170731707317</v>
+        <v>0.1993127147766323</v>
       </c>
       <c r="L55">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="M55">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>325</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.2038043478260869</v>
+        <v>0.1958997722095672</v>
       </c>
       <c r="L56">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M56">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>293</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1995614035087719</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="L57">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2294,99 +2315,99 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>365</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1981981981981982</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1885245901639344</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1862068965517241</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M60">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>236</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1858974358974359</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2398,47 +2419,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1845102505694761</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L62">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>358</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1768292682926829</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2450,47 +2471,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1729957805907173</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L64">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M64">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>196</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1660516605166052</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L65">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M65">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2502,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.162962962962963</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L66">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2528,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1595092024539877</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2554,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.1525423728813559</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L68">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2580,229 +2601,229 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1486810551558753</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="L69">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="M69">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>355</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.1428571428571428</v>
+        <v>0.1116322701688555</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>132</v>
+        <v>947</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.110632183908046</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L71">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>619</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1074766355140187</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="L72">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M72">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>955</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1010928961748634</v>
+        <v>0.08948740225890529</v>
       </c>
       <c r="L73">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M73">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>329</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.09392265193370165</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L74">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O74">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.0931174089068826</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>224</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.08883248730964467</v>
+        <v>0.07458563535911603</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.08823529411764706</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2814,73 +2835,73 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>248</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.08282476024411509</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="L78">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="N78">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O78">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1052</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.07037037037037037</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="L79">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M79">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="O79">
-        <v>0.05000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>502</v>
+        <v>714</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.06936416184971098</v>
+        <v>0.03001364256480218</v>
       </c>
       <c r="L80">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N80">
         <v>0.92</v>
@@ -2892,59 +2913,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K81">
-        <v>0.05339805825242718</v>
-      </c>
-      <c r="L81">
-        <v>22</v>
-      </c>
-      <c r="M81">
-        <v>24</v>
-      </c>
-      <c r="N81">
-        <v>0.92</v>
-      </c>
-      <c r="O81">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K82">
-        <v>0.04617414248021108</v>
-      </c>
-      <c r="L82">
-        <v>35</v>
-      </c>
-      <c r="M82">
-        <v>44</v>
-      </c>
-      <c r="N82">
-        <v>0.8</v>
-      </c>
-      <c r="O82">
-        <v>0.2</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
